--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_195.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_195.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,618 +488,648 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1712473572938689</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
-        </is>
+          <t>jaah_41</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1510324483775811</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['C:7', 'F', 'C:7', 'F']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(0.68, 2.98)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(1.44, 6.66)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:10.130000', '0:00:14.450000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:01:04.480000', '0:01:12.760000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_251</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1893687707641196</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3452380952380952</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'A', 'E']]</t>
+          <t>[['E:maj', 'B:7/A', 'E:maj/G#', 'E:maj/B']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(57.401473, 66.677845)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(5.68228, 20.438561)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:03:32.600000', '0:03:44.400000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:01:08.040000', '0:01:19')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.07672413793103448</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min/G', 'G', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_77</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1714285714285714</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(26.96, 30.84), (15.06, 20.56)]</t>
+          <t>[['E:7', 'A:min', 'D:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(19.98, 27.18), (8.44, 17.54)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:24.580000', '0:00:32.940000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:53.280000', '0:01:02.860000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_10</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1540178571428572</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D', 'C', 'G/3']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(76.300702, 81.607119)]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'E:7', 'A:maj', 'C#:7/G#', 'G:(3,5)', 'B:maj', 'G#:(3,5,b7,b9)', 'C#:min/F#', 'E:maj/F#', 'F#:7', 'B:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(34.416, 41.151)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:00.580000', '0:00:38.340000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:00.320000', '0:00:40.640000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_67</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1852631578947369</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F', 'G', 'C', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>jaah_66</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.05610859728506788</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F', 'G', 'C', 'A:min']]</t>
+          <t>[['E:maj/B', 'E:min/B', 'B:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(0.414179, 9.717289)]</t>
+          <t>[['Db', 'Db:min', 'Ab']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(97.77399, 104.182698)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:00:05.420000', '0:00:12.140000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:49.580000', '0:00:52.970000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_166</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2158018867924528</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A', 'D/5', 'D'], ['D/5', 'A', 'D/5']]</t>
-        </is>
+          <t>isophonics_136</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_165</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1883070301291248</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'G'], ['G', 'D', 'G']]</t>
+          <t>[['D/5', 'A', 'D', 'A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(35.463242, 38.330907), (31.898979, 34.035215)]</t>
+          <t>[['D', 'A', 'D', 'A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(19.139614, 27.777437), (17.839297, 22.785147)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:02:06.990000', '0:02:15.953000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:43.752292', '0:00:50.730362')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1231527093596059</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj'], ['A#:maj/D', 'F:maj/C', 'C:7']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.375</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab:maj', 'Ab/7'], ['Db:maj', 'Ab/3', 'Eb:7']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(68.54, 79.0), (66.88, 70.32)]</t>
+          <t>[['A', 'D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(54.072, 59.053), (13.159, 16.555)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:01:00.040000', '0:01:10.960000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:14.879000', '0:01:27.795000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1182266009852217</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F:7', 'Bb', 'Bb'], ['Bb', 'Bb', 'Bb:7', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:maj'], ['F:maj', 'F:maj', 'F:7', 'A#:maj']]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(50.13, 55.78), (33.2, 40.71)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(68.04, 79.0), (70.32, 84.54)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:06.600000', '0:00:19.060000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:02.420000', '0:01:04.620000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
-        </is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.59375</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj/G'], ['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(96.12, 103.44), (130.84, 135.98)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(100.26, 106.3), (42.36, 50.36)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:14.879000', '0:01:25.949000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2863636363636364</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
-        </is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4675324675324675</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(48.001, 54.307)]</t>
+          <t>[['A', 'D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(20.56, 23.94)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:08.158789', '0:00:24.401147')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:40.490000', '0:00:50.260000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_257</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_197</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.08957219251336898</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'C#:min']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'F#:min']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(21.496439, 26.964739)]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(19.977483, 31.599071)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:27.600000', '0:00:54.260000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:58.780000', '0:02:02.740000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.06554054054054054</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:min', 'F:min', 'C:min/G'], ['C:min/G', 'G:7', 'C:min']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min'], ['C:min', 'G:7', 'C:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(9.24, 12.56), (24.18, 27.66)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(13.648526, 21.12535), (1.129708, 6.12526)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_12</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2848837209302326</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_95</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_44</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(30.06, 43.78)]</t>
+          <t>[['A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'G#/C', 'G#:7', 'C#', 'A#:min', 'D#:7/A#', 'G#', 'C#/F', 'G#:7/D#', 'C#/F', 'G#:7', 'C#', 'C:dim7/C#', 'C#:7', 'F#', 'D#:min', 'G#:7/D#', 'C#', 'F#/A#', 'C#:7/G#', 'F#/A#', 'C#', 'F#', 'C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'A:dim7/A#', 'A#:min', 'D#:min', 'A#:min/F', 'D#:min7/F#', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(61.88, 67.8)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:13.400000', '0:01:28.140000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:15.900000', '0:01:46.380000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_196</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_135</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_12</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(35.46, 50.44)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(120.66, 122.74)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:13.600000', '0:00:44.080000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:13.320000', '0:00:43.780000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_76</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_292</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1004464285714286</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D/2', 'A/5', 'E']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(8.605, 11.726)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(0.0, 3.326825)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:02:28.280000', '0:02:33.260000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:02:30.160000', '0:02:34.940000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_214</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_58</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3809523809523809</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'C']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(6.36, 13.58)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(39.386636, 52.14687)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
